--- a/Documentation/ATmega4809-A-breakout-BOM.xlsx
+++ b/Documentation/ATmega4809-A-breakout-BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -9,123 +9,41 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">ATmega4809-A-breakout BOM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+  <si>
+    <t xml:space="preserve">Steve Mansfield - ATmega4809-A-breakout BOM</t>
   </si>
   <si>
     <t xml:space="preserve">Item #</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Designator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Qty</t>
-    </r>
+    <t xml:space="preserve">*Designator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Qty</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Mfg Part #</t>
-    </r>
+    <t xml:space="preserve">*Mfg Part #</t>
   </si>
   <si>
     <t xml:space="preserve">Description / Value</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Package/Footprint </t>
-    </r>
+    <t xml:space="preserve">*Package/Footprint </t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -212,35 +130,7 @@
     <t xml:space="preserve">ERJ-UP3J512V</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Resistor 5.1K OHM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">5% 1/4W </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0603 SMD</t>
-    </r>
+    <t xml:space="preserve">Resistor 5.1K OHM 5% 1/4W 0603 SMD</t>
   </si>
   <si>
     <t xml:space="preserve">R3</t>
@@ -255,16 +145,7 @@
     <t xml:space="preserve">Resistor 1K OHM 5% 1/4W 0603 SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERJ-UP3J471V </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor 470 OHM 5% 1/4W 0603 SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
+    <t xml:space="preserve">R4,R5</t>
   </si>
   <si>
     <t xml:space="preserve">ESR03EZPJ103 </t>
@@ -282,27 +163,30 @@
     <t xml:space="preserve">ATMEGA4809-AF</t>
   </si>
   <si>
-    <t xml:space="preserve">Microcontroller TQFP-48 SMD</t>
+    <t xml:space="preserve">Microcontroller TQFP-48</t>
   </si>
   <si>
     <t xml:space="preserve">TQFP-48 1EP 7x7mm P0.5mm EP 4.11x4.11mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TQFP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="6">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -320,63 +204,19 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,14 +225,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,7 +246,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -436,155 +270,79 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBFBFBF"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
@@ -593,13 +351,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>663480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="图片 1" descr="pcbway-400x400.jpg"/>
+        <xdr:cNvPr id="1" name="图片 1" descr="图片 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -609,13 +367,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="209520"/>
-          <a:ext cx="1354320" cy="375840"/>
+          <a:ext cx="1351440" cy="372960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln w="12700">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -628,7 +386,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 主题">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -636,10 +394,10 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="a7a7a7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4f81bd"/>
@@ -663,19 +421,19 @@
         <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="ff00ff"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 主题">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -708,17 +466,14 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -805,49 +560,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="9"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -856,371 +647,322 @@
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" s="12" customFormat="true" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" s="12" customFormat="true" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>38</v>
+      <c r="D15" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="F15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="G15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="H15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:F4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>